--- a/nutricia_milk_formulas.xlsx
+++ b/nutricia_milk_formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yeshwanth\Desktop\uyyaala to kidsfud products\milk_formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A770E4FB-B54B-4C10-8F2C-10C819981EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EA0C9-DDBE-4CF3-9F11-919188EAADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,84 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-first-infant-milk-from-birth-0-6-months-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-pronutra-advanced-milk-formula-to-support-baby-immune-system-stage-2-6-12-months</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/aptamil-lactose-free-first-infant-milk-from-birth-400g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-organic-milk-formula-to-support-baby-immune-system-stage-2-6-12-months-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/aptamil-toddler-milk-stage-3-1-2-years-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-gold-infant-formula-stage-1-from-birth-0-6-months-400g-tin-pack</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-gold-infant-formula-stage-1-from-birth-0-6-months-400g-refill-pack</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-gold-infant-formula-stage-2-6-12-months-400g-refill-pack</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-toddler-milk-from-2-3-years-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-advanced-first-infant-milk-substitute-800g-0m</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-gold-infant-formula-stage-3-12-months-400g-refill-pack</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-aptamil-pepti-infant-formula-0-to-12-months-400g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-comfort-milk-formula-for-dietary-management-of-colic-constipation-0-12-months</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-milk-formula-to-support-baby-immune-system-stage-2-6-12-months-refill-pack-1-2kg-2-x-600g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-anti-reflux-milk-formula-for-dietary-management-of-reflux-regurgitation-0-12-months-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-advanced-2-infant-milk-substitute-800g-6-12-months</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-organic-first-infant-milk-from-birth-0-6-months-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-milk-formula-to-support-baby-immune-system-stage-2-6-12-months</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-pre-measured-tabs-stage-2-6-to-12-months-24-sachets-576g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-organic-toddler-milk-stage-3-1-2-years-800g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-first-infant-milk-from-birth-0-6-months-700g-tin-pack</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-follow-on-baby-milk-formula-stage-2-6-12-months-700gms</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-advanced-3-toddler-milk-substitute-800g-1-3-years</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-neocate-dha-ara-first-infant-milk-formula-from-0-12-months-400g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/nutricia-aptamil-first-infant-milk-from-birth-0-6-months-refill-pack-1-2kg-2-x-600g</t>
-  </si>
-  <si>
-    <t>https://www.uyyaala.com/products/aptamil-pepti-infant-baby-milk-formula-0-to-12-months-400gms</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-pre-nan-for-premature-babies-low-birth-weight-infant-formula-less-than-2-5kg-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nan-optipro-starter-infant-formula-stage-1-400g-0-to-6months</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/products-nestle-nan-optipro-starter-follow-up-formula-stage-3-400g-1-to-3-years</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-lactogen-infant-formula-stage-2-after-6-months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nan-pro-infant-formula-stage-1-400g-upto-6-months</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-lactogen-infant-formula-stage-1-up-to-6-months-400g-tin-pack</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nan-pro-infant-formula-stage-2-after-6-months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nido-one-plus-growing-up-formula-1-3-years-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-lactogen-infant-formula-stage-1-upto-6-months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nan-pro-infant-formula-stage-3-after-12-months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-lactogen-infant-formula-stage-3-after-12months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nan-optipro-starter-follow-up-formula-stage-4-400g-3-to-6-years</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-lactogen-infant-formula-stage-4-18-to-24months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nan-pro-infant-baby-formula-stage-4-18-to-24-months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-excellapro-infant-formula-stage-1-up-to-6-months-400g</t>
+  </si>
+  <si>
+    <t>https://www.uyyaala.com/products/nestle-nido-little-kids-infant-formula-3-5-years-1800g</t>
   </si>
   <si>
     <t>urls</t>
@@ -463,7 +433,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -473,7 +443,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -602,86 +572,6 @@
       </c>
       <c r="B17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
